--- a/src/test/java/org/iti/testData/TestData.xlsx
+++ b/src/test/java/org/iti/testData/TestData.xlsx
@@ -1,65 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testautomationframework\POM\src\test\java\org\iti\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A69127-F8EE-42D4-A8C6-2AF9D394BA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB7FDE-8445-40A4-8CE2-217104C82CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A03511E-B5F4-40C0-B4E3-F5FB3DF16F95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>dayOfBirth</t>
-  </si>
-  <si>
-    <t>monthOfBirth</t>
-  </si>
-  <si>
-    <t>yearOfbirth</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>male</t>
   </si>
@@ -70,27 +36,41 @@
     <t>medhat</t>
   </si>
   <si>
-    <t>ahmed@test.com</t>
+    <t>ahmed@yyyy.com</t>
+  </si>
+  <si>
+    <t>ahmdded@yyyy.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>21548</t>
+  </si>
+  <si>
+    <t>5489241</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bahnschrift Light"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -100,34 +80,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,33 +100,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -204,7 +151,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -216,7 +163,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -233,7 +180,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -263,29 +210,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -315,23 +245,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,246 +396,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33242CA5-3952-4FC8-8010-246815092869}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD30"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="17.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="5" customWidth="1"/>
-    <col min="9" max="13" width="17.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="17.85546875" style="1" hidden="1"/>
+    <col min="1" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1996</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7">
-        <v>159951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="4:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="H30" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{A4FC2004-A819-422C-A305-6C739D227130}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9953D198-14CE-454A-9965-EA88A1A6C909}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/test/java/org/iti/testData/TestData.xlsx
+++ b/src/test/java/org/iti/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testautomationframework\POM\src\test\java\org\iti\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB7FDE-8445-40A4-8CE2-217104C82CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A739E-C661-4608-8F42-AA83545BB859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>male</t>
   </si>
@@ -36,28 +36,22 @@
     <t>medhat</t>
   </si>
   <si>
-    <t>ahmed@yyyy.com</t>
-  </si>
-  <si>
-    <t>ahmdded@yyyy.com</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>1985</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>21548</t>
-  </si>
-  <si>
-    <t>5489241</t>
+    <t>5489920</t>
+  </si>
+  <si>
+    <t>ah0sdfffff0159med@yyyy.com</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>mohamed</t>
   </si>
 </sst>
 </file>
@@ -397,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,19 +413,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -439,32 +433,60 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{9953D198-14CE-454A-9965-EA88A1A6C909}"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{C365D388-4E1C-4B8B-BB0C-C741F066D5F3}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{38010DBC-5983-4E86-BAD7-9D56E88AB58A}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{8021F9AA-D371-4136-A3CE-67E38271A6C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/test/java/org/iti/testData/TestData.xlsx
+++ b/src/test/java/org/iti/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testautomationframework\POM\src\test\java\org\iti\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A739E-C661-4608-8F42-AA83545BB859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FAC093-601F-45FB-BAFC-E3EFB78C16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>male</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>mohamed</t>
   </si>
 </sst>
 </file>
@@ -394,7 +391,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -459,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -483,8 +480,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{C365D388-4E1C-4B8B-BB0C-C741F066D5F3}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{38010DBC-5983-4E86-BAD7-9D56E88AB58A}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{8021F9AA-D371-4136-A3CE-67E38271A6C6}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{0FB63AE0-3C8D-4D45-AFB0-30BC35E7A8C3}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{FE6F389C-5B01-49B7-84B2-1125CCAFB654}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/test/java/org/iti/testData/TestData.xlsx
+++ b/src/test/java/org/iti/testData/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testautomationframework\POM\src\test\java\org\iti\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FAC093-601F-45FB-BAFC-E3EFB78C16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E585EB2D-7ECB-4252-B56D-D4102CBD0D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>male</t>
   </si>
@@ -45,10 +46,10 @@
     <t>5489920</t>
   </si>
   <si>
-    <t>ah0sdfffff0159med@yyyy.com</t>
-  </si>
-  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>asd1d59@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -388,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,77 +414,35 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{C365D388-4E1C-4B8B-BB0C-C741F066D5F3}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{0FB63AE0-3C8D-4D45-AFB0-30BC35E7A8C3}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{FE6F389C-5B01-49B7-84B2-1125CCAFB654}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD79AC3-5135-434E-BAE8-B6E4FA920362}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/org/iti/testData/TestData.xlsx
+++ b/src/test/java/org/iti/testData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testautomationframework\POM\src\test\java\org\iti\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POM\src\test\java\org\iti\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E585EB2D-7ECB-4252-B56D-D4102CBD0D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04293D2-4037-457F-92B9-E88F1A027191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>asd1d59@gmail.com</t>
+    <t>rtss59@gmail.com</t>
   </si>
 </sst>
 </file>
